--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DDEDF-6669-6246-BEBC-5553BCEA8482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4DEC4D-3874-A344-9436-A244F9D4DCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1762,7 +1762,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1877,7 +1876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1901,6 +1900,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2185,16 +2187,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2224,11 +2226,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>1500000.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2242,21 +2244,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2339,11 +2341,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="n">
-        <v>250000.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2412,11 +2414,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="n">
-        <v>54000.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4890,7 +4892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
